--- a/EXCEL/Модель_Юнит-клиент.xlsx
+++ b/EXCEL/Модель_Юнит-клиент.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omaksakova\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chimistemignon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9E873-B52C-4C24-8576-5C5C6CF0E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5617CD14-E64A-4244-8363-77380E25D89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="29040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Модель" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t xml:space="preserve"> - необходимо заполнить</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Число привлеченных платящих пользователей</t>
   </si>
   <si>
-    <t>Доход от одного платящего клиента</t>
-  </si>
-  <si>
     <t>Средний LT</t>
   </si>
   <si>
@@ -96,6 +93,43 @@
   </si>
   <si>
     <t>Маржинальная прибыль</t>
+  </si>
+  <si>
+    <t>Marketing costs
+(Acq costs)</t>
+  </si>
+  <si>
+    <t>Attraction</t>
+  </si>
+  <si>
+    <t>Number of attracted users (UA)</t>
+  </si>
+  <si>
+    <t>Number of attracted paying users</t>
+  </si>
+  <si>
+    <t>Average LT</t>
+  </si>
+  <si>
+    <t>Revenue per one customer</t>
+  </si>
+  <si>
+    <t>Payback calculations</t>
+  </si>
+  <si>
+    <t>Marginal profit</t>
+  </si>
+  <si>
+    <t>P&amp;L total</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Acq costs</t>
   </si>
 </sst>
 </file>
@@ -242,6 +276,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -249,20 +288,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -544,57 +578,57 @@
   </sheetPr>
   <dimension ref="A4:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="166" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>11</v>
+    <row r="9" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
       <c r="B10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
       <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
       <c r="B12" s="13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <f>C10*C11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
@@ -603,24 +637,24 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>16</v>
+    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
@@ -629,9 +663,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>18</v>
+    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>4</v>
@@ -642,8 +676,8 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
       <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
@@ -652,52 +686,52 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="16" t="e">
         <f>C21/C22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="24"/>
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C24" s="17" t="e">
         <f>C21-C22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>6</v>
+    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C27" s="11">
         <f>C12*C18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+    <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A28" s="24"/>
       <c r="B28" s="10" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C28" s="17" t="e">
         <f>C12*(C21-C22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+    <row r="29" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="24"/>
       <c r="B29" s="12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C29" s="11">
         <f>C9</f>
@@ -715,8 +749,6 @@
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -725,8 +757,6 @@
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24 C28">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -744,20 +774,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -767,8 +797,8 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
       <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
@@ -776,8 +806,8 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -785,8 +815,8 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
       <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
@@ -795,8 +825,8 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
@@ -805,9 +835,9 @@
         <v>750</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>20</v>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
@@ -816,8 +846,8 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
@@ -825,8 +855,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
@@ -835,17 +865,17 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
       <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
@@ -854,9 +884,9 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>18</v>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>4</v>
@@ -866,8 +896,8 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="24"/>
       <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
@@ -876,18 +906,18 @@
         <v>750</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="24"/>
       <c r="B25" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="9">
         <f>C23/C24</f>
         <v>1.536</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -898,8 +928,8 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="24"/>
       <c r="B29" s="10" t="s">
         <v>8</v>
       </c>
@@ -908,8 +938,8 @@
         <v>1608000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
@@ -918,8 +948,8 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="24"/>
       <c r="B31" s="12" t="s">
         <v>10</v>
       </c>
@@ -939,8 +969,6 @@
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
